--- a/StructureDefinition-PhenotypicFeature.xlsx
+++ b/StructureDefinition-PhenotypicFeature.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -1220,7 +1220,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>GA4GH severity and modifiers should be coded as CodeableConcepts in the code field of the component</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1264,10 +1264,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1469,7 +1465,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6446,7 +6442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>382</v>
       </c>
@@ -6459,10 +6455,10 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
@@ -7060,16 +7056,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>237</v>
@@ -7139,7 +7135,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>240</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7182,13 +7178,13 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>247</v>
@@ -7240,7 +7236,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7275,7 +7271,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7359,7 +7355,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7420,10 +7416,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7478,7 +7474,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-PhenotypicFeature.xlsx
+++ b/StructureDefinition-PhenotypicFeature.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -746,10 +746,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>true: observed; false: excluded</t>
   </si>
   <si>
@@ -760,6 +756,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>https://github.com/phenopackets/core-ig/ValueSet/phenotypicFeatureVS</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1264,6 +1263,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1479,7 +1482,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.6015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -4117,19 +4120,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4154,13 +4157,11 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -7056,19 +7057,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7135,7 +7136,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>240</v>
@@ -7152,7 +7153,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7178,13 +7179,13 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>247</v>
@@ -7236,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7271,7 +7272,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7355,7 +7356,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7390,7 +7391,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,10 +7417,10 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7474,7 +7475,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
